--- a/0 NeetCode/739. Daily Temperatures/Whiteboards/Solution.xlsx
+++ b/0 NeetCode/739. Daily Temperatures/Whiteboards/Solution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\0 template\Whiteboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\0 NeetCode\739. Daily Temperatures\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713DE802-9519-4608-B352-D1C1ED0E8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD05A1-B492-45FC-A274-B582C4BD026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
@@ -34,15 +34,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>[1,1,4,2,1,1,0,0]</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,10 +82,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,17 +404,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF585D-CE06-44D4-80AA-070156E711E0}">
-  <dimension ref="A1"/>
+  <dimension ref="D6:AJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="8:36" ht="18" customHeight="1">
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="8:36" ht="18" customHeight="1">
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="8:36" ht="18" customHeight="1">
+      <c r="V8" s="1">
+        <v>2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="8:36" ht="18" customHeight="1">
+      <c r="H9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3</v>
+      </c>
+      <c r="W9" s="1">
+        <v>71</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="8:36" ht="18" customHeight="1">
+      <c r="V10" s="1">
+        <v>4</v>
+      </c>
+      <c r="W10" s="1">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>73</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>75</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>76</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="8:36" ht="18" customHeight="1">
+      <c r="V11" s="1">
+        <v>5</v>
+      </c>
+      <c r="W11" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="8:36" ht="18" customHeight="1">
+      <c r="V12" s="1">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="8:36" ht="18" customHeight="1">
+      <c r="V13" s="1">
+        <v>7</v>
+      </c>
+      <c r="W13" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="8:36" ht="18" customHeight="1">
+      <c r="AC14" s="1">
+        <v>73</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>74</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>75</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>76</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="8:36" ht="18" customHeight="1">
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:35" ht="18" customHeight="1">
+      <c r="L18" s="1">
+        <v>69</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:35" ht="18" customHeight="1">
+      <c r="J19" s="1">
+        <v>71</v>
+      </c>
+      <c r="L19" s="1">
+        <v>71</v>
+      </c>
+      <c r="N19" s="1">
+        <v>72</v>
+      </c>
+      <c r="R19" s="1">
+        <v>73</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:35" ht="18" customHeight="1">
+      <c r="D20" s="1">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1">
+        <v>74</v>
+      </c>
+      <c r="H20" s="1">
+        <v>75</v>
+      </c>
+      <c r="J20" s="1">
+        <v>75</v>
+      </c>
+      <c r="L20" s="1">
+        <v>75</v>
+      </c>
+      <c r="N20" s="1">
+        <v>75</v>
+      </c>
+      <c r="P20" s="1">
+        <v>76</v>
+      </c>
+      <c r="R20" s="1">
+        <v>76</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
